--- a/faults-lwh/debugging.xlsx
+++ b/faults-lwh/debugging.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="F4" sheetId="12" r:id="rId4"/>
     <sheet name="F5" sheetId="9" r:id="rId5"/>
     <sheet name="F7" sheetId="7" r:id="rId6"/>
-    <sheet name="F10" sheetId="1" r:id="rId7"/>
-    <sheet name="F11" sheetId="8" r:id="rId8"/>
-    <sheet name="F12" sheetId="10" r:id="rId9"/>
-    <sheet name="F13" sheetId="5" r:id="rId10"/>
+    <sheet name="F8" sheetId="14" r:id="rId7"/>
+    <sheet name="F10" sheetId="1" r:id="rId8"/>
+    <sheet name="F11" sheetId="8" r:id="rId9"/>
+    <sheet name="F12" sheetId="10" r:id="rId10"/>
+    <sheet name="F13" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="273">
   <si>
     <t>Fault</t>
   </si>
@@ -156,9 +157,6 @@
     <t>R9-4</t>
   </si>
   <si>
-    <t>A10(0.2h)</t>
-  </si>
-  <si>
     <t>R10-1</t>
   </si>
   <si>
@@ -171,75 +169,18 @@
     <t>F12</t>
   </si>
   <si>
-    <t>A4(0.16h)</t>
-  </si>
-  <si>
-    <t>A5(0.14h)</t>
-  </si>
-  <si>
-    <t>A6(0.15h)</t>
-  </si>
-  <si>
-    <t>A7(0.15h)</t>
-  </si>
-  <si>
-    <t>A8(0.15h)</t>
-  </si>
-  <si>
-    <t>A9(0.14h)</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
-    <t>A2(0.25h)</t>
-  </si>
-  <si>
-    <t>A3(0.24h)</t>
-  </si>
-  <si>
-    <t>A4(0.26h)</t>
-  </si>
-  <si>
-    <t>A5(0.23h)</t>
-  </si>
-  <si>
-    <t>A6(0.23h)</t>
-  </si>
-  <si>
-    <t>A7(0.24h)</t>
-  </si>
-  <si>
-    <t>A8(0.24h)</t>
-  </si>
-  <si>
-    <t>A9(0.26h)</t>
-  </si>
-  <si>
-    <t>A10(0.23h)</t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
-    <t>A10(0.18h)</t>
-  </si>
-  <si>
     <t>F13</t>
   </si>
   <si>
-    <t>A4(0.31h)</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
-    <t>A2(0.31h)</t>
-  </si>
-  <si>
-    <t>A5(0.29h)</t>
-  </si>
-  <si>
     <t>R1-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -514,46 +455,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A1(0.25h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2(0.28h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3(0.22h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4(0.26h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5(0.24h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6(0.20h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7(0.21h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8(0.22h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9(0.20h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10(0.21h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>F2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -948,10 +849,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A1(0.22h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R3-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -960,26 +857,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A2(0.20h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3(0.21h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5(0.24h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9(0.25h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4(0.19h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -988,10 +865,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A6(0.23h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R6-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1004,10 +877,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A7(0.32h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R7-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1024,10 +893,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A8(0.24h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R8-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1040,10 +905,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A10(0.26h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R10-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1323,74 +1184,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A1(0.48h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2(0.33h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3(0.32h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4(0.30h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5(0.31h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6(0.29h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7(0.28h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8(0.26h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9(0.24h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1(0.33h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2(0.31h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A3(0.33h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4(0.28h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5(0.20h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7(0.14h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9(0.13h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R1-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1700,18 +1497,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A1(0.22h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A2(0.24h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R2-3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1720,34 +1509,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A3(0.12h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5(0.11h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6(0.12h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7(0.11h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8(0.10h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9(0.11h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10(0.10h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2015,10 +1776,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A1(0.75h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2035,30 +1792,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A3(0.30h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6(0.28h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7(0.27h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8(0.21h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9(0.24h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10(0.20h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">  </t>
     </r>
@@ -2326,22 +2059,6 @@
       </rPr>
       <t>C10</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1(1.22h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1(0.13h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2(0.12h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3(0.11h)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2713,27 +2430,584 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A1(0.21h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2(0.20h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3(0.19h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4(0.20h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6(0.16h)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10(0.14h)</t>
+    <t>Notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The traces of success
+ and fail are all the same. The root cause can not be found by simply comparing the traces</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(15m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(17m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(13m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(16m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(12m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(13m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(13m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(12m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(13m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(10m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(9m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(9m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(20m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(19m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(20m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(17m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(12m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(9m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(9m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(11m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(13m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(12m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(11m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(12m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(10m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(18m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(19m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(19m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(17m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(17m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(16m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(12m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(73m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(15m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(16m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(16m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(11m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(19m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(15m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(16m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(29m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(20m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(19m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(18m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(19m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(12m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(16m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(17m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(45m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(10m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(8m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(9m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(14m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(7m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(6m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(6m)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Request</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Three user requestes include: 1. Login 2. Reserve ticket 3. Reserve ticket</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Two user requestes include: 1. Login 2. Query Ticket</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Two user requestes include: 1. Login 2. Query Ticket</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Five user requestes include: 1. Login 2. Query Ticket 3.Select contact 4. Confirm ticker 5.Pay</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Five user requestes include: 1. Login 2. Query Ticket 3.Select contact 4. Confirm ticker 5.Pay</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Five user requestes include: 1. Admin Login 2. Admin lock interval 3.User login 4.User query order 5.User cancel ticket</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Six to eight user requestes include: 1.Regist(0-2 times) 2. Login 3.Reserve ticket 4.Pay 5.Cancel ticket 6.Query Order 7. Query order</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Six user requestes include: 1. Login 2. Query ticket 3.Query contacts 4.Reserve ticket 5.Reserve ticket(After add new contact)6.Reserve ticket(After add new contact)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Four user requestes include: 1. Login 2. Query order list 3.Request cancel ticket 4.Confirm cancel ticket</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Four user requestes include: 1. Login 2. Query order list 3.Request cancel ticket 4.Confirm cancel ticket</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Four user requestes include: 1. Login 2. Query order list 3.Request cancel ticket 4.Confirm cancel ticket</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2741,7 +3015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -2792,6 +3066,17 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2815,7 +3100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2830,6 +3115,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3131,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K13"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.75"/>
@@ -3144,6 +3447,7 @@
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3166,7 +3470,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3191,10 +3497,10 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
@@ -3206,11 +3512,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2">
         <v>8</v>
@@ -3221,7 +3529,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>7</v>
@@ -3233,9 +3541,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3558,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -3260,9 +3570,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3275,7 +3587,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
@@ -3287,9 +3599,11 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3616,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3314,9 +3628,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3329,7 +3645,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -3341,9 +3657,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
@@ -3351,12 +3669,12 @@
         <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -3368,9 +3686,11 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3383,7 +3703,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
@@ -3395,9 +3715,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>35</v>
       </c>
@@ -3410,7 +3732,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
         <v>7</v>
@@ -3422,9 +3744,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3437,7 +3761,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -3449,11 +3773,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2">
         <v>8</v>
@@ -3462,7 +3788,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:J15"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3470,19 +3823,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -3504,7 +3860,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3529,136 +3887,151 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>173</v>
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D4" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>213</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="C6" s="3" t="s">
-        <v>174</v>
+      <c r="C6" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="D6" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>372</v>
+        <v>210</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="2">
+        <v>214</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="C9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="2">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
-        <v>324</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -3669,148 +4042,145 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="J10">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="C11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="2">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>403</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>214</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J13">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="C14" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>404</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="C16" s="2" t="s">
-        <v>178</v>
+      <c r="C16" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D16" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J16">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -3818,15 +4188,16 @@
         <v>28</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3834,157 +4205,153 @@
         <v>29</v>
       </c>
       <c r="J18">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="2">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>371</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>225</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J19">
-        <v>16</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="J20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="2">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>371</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>215</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J22">
-        <v>16</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="2">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
-        <v>372</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="3:11">
@@ -3995,96 +4362,115 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>220</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="I28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J26">
-        <v>8</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="I29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J27">
-        <v>33</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="C28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="2">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2">
-        <v>356</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J29">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="I30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="D32" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D32:K32"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -4106,7 +4492,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4131,148 +4519,142 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
-        <v>2706</v>
+        <v>324</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>372</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6</v>
+      <c r="J6">
+        <v>8</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="2">
+        <v>128</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>324</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9" s="2">
-        <v>35</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -4283,71 +4665,71 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="2">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>403</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" s="2">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="C12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="2">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="2">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>33</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>11</v>
@@ -4355,29 +4737,31 @@
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2">
-        <v>2706</v>
+        <v>404</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="2">
+        <v>23</v>
+      </c>
+      <c r="J14">
         <v>8</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4388,91 +4772,103 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="2">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>355</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="2">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>32</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>33</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>371</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7</v>
+      </c>
       <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="3:11">
@@ -4483,145 +4879,137 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="2">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="2">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>33</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>371</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="2">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="2">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F23" s="2">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="2">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <v>33</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>372</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="2">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2706</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="2">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="3:11">
@@ -4631,30 +5019,89 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>33</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>356</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29">
+        <v>33</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="D31" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D31:K31"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4662,6 +5109,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4684,7 +5132,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4709,122 +5159,139 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
-        <v>398</v>
+        <v>2706</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="J4" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2706</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
-        <v>398</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2706</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="J7" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
-        <v>398</v>
+        <v>2706</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="J8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4835,40 +5302,30 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J9" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="C10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>398</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="J10" s="2">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -4879,40 +5336,42 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="J11" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
-        <v>398</v>
+        <v>2706</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -4926,37 +5385,39 @@
         <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2">
-        <v>398</v>
+        <v>2706</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="J14" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4970,37 +5431,27 @@
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2">
-        <v>398</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:11">
@@ -5011,40 +5462,42 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2">
-        <v>398</v>
+        <v>2706</v>
       </c>
       <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="2">
-        <v>9</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -5055,137 +5508,215 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="2">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2">
-        <v>398</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="J20" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2706</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
       <c r="I21" s="2" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="J21" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="2">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2">
-        <v>398</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="J22" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2706</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="J23" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2706</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="2"/>
+      <c r="D28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D28:K28"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K66"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -5207,7 +5738,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5232,10 +5765,566 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>398</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>398</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>398</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>398</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="2">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>398</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>398</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>398</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>398</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>398</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="2">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>398</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="2"/>
+      <c r="D24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D24:K24"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="2">
         <v>22</v>
@@ -5247,16 +6336,29 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11">
+        <v>198</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2">
         <v>22</v>
@@ -5268,15 +6370,26 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11">
+        <v>216</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>22</v>
@@ -5288,15 +6401,26 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11">
+        <v>215</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="2:13">
       <c r="C7" s="2" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2">
         <v>22</v>
@@ -5308,15 +6432,26 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11">
+        <v>217</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="2:13">
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2">
         <v>22</v>
@@ -5328,15 +6463,26 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11">
+        <v>218</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
         <v>22</v>
@@ -5348,15 +6494,26 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11">
+        <v>219</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2">
         <v>22</v>
@@ -5368,15 +6525,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11">
+        <v>220</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="2:13">
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>22</v>
@@ -5388,15 +6556,26 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11">
+        <v>184</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
         <v>22</v>
@@ -5408,15 +6587,26 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11">
+        <v>221</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="2:13">
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2">
         <v>22</v>
@@ -5428,13 +6618,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11">
+        <v>222</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5444,13 +6645,17 @@
       <c r="I14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+    <row r="15" spans="2:13">
+      <c r="C15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="2"/>
@@ -5613,6 +6818,11 @@
       <c r="F66" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M13"/>
+    <mergeCell ref="C15:J15"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5623,8 +6833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5636,13 +6846,14 @@
     <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -5664,7 +6875,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5689,10 +6902,10 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2">
         <v>17</v>
@@ -5704,9 +6917,11 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5749,13 +6964,13 @@
         <v>215</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2">
         <v>17</v>
@@ -5767,9 +6982,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
@@ -5807,18 +7024,18 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="J9">
         <v>215</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2">
         <v>17</v>
@@ -5830,9 +7047,11 @@
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
@@ -5874,12 +7093,12 @@
         <v>215</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="2" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2">
         <v>17</v>
@@ -5891,9 +7110,11 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -5923,12 +7144,12 @@
         <v>215</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="C16" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="D16" s="2">
         <v>17</v>
@@ -5940,9 +7161,11 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
@@ -5984,12 +7207,12 @@
         <v>215</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2">
         <v>17</v>
@@ -6001,9 +7224,11 @@
         <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
       <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
@@ -6045,12 +7270,12 @@
         <v>215</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="D22" s="2">
         <v>17</v>
@@ -6062,9 +7287,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
       <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
@@ -6106,12 +7333,12 @@
         <v>215</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="2" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2">
         <v>17</v>
@@ -6123,9 +7350,11 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>35</v>
       </c>
@@ -6167,12 +7396,12 @@
         <v>215</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="2" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2">
         <v>17</v>
@@ -6184,9 +7413,11 @@
         <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
       <c r="I28" s="2" t="s">
         <v>38</v>
       </c>
@@ -6222,12 +7453,12 @@
         <v>215</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="2" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="D31" s="2">
         <v>17</v>
@@ -6239,11 +7470,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
       <c r="I31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>28</v>
@@ -6258,7 +7491,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>12</v>
@@ -6269,14 +7502,24 @@
     </row>
     <row r="33" spans="3:11">
       <c r="I33" s="2" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="J33">
         <v>215</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="D35" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="2"/>
@@ -6433,6 +7676,9 @@
       <c r="G80" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D35:I35"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6441,10 +7687,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6452,6 +7698,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6474,7 +7721,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6499,10 +7748,10 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2">
         <v>22</v>
@@ -6514,9 +7763,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6524,13 +7775,13 @@
         <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2">
         <v>22</v>
@@ -6542,9 +7793,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -6552,12 +7805,12 @@
         <v>8</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2">
         <v>22</v>
@@ -6569,9 +7822,11 @@
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
@@ -6579,7 +7834,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -6590,18 +7845,18 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J7" s="2">
         <v>8</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2">
         <v>22</v>
@@ -6613,9 +7868,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
@@ -6623,12 +7880,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2">
         <v>22</v>
@@ -6640,9 +7897,11 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
@@ -6650,7 +7909,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -6661,18 +7920,18 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2">
         <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2">
         <v>22</v>
@@ -6684,9 +7943,11 @@
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
@@ -6694,7 +7955,7 @@
         <v>8</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -6705,13 +7966,13 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2">
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -6722,13 +7983,13 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2">
         <v>8</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -6739,18 +8000,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2">
         <v>22</v>
@@ -6762,9 +8023,11 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>31</v>
       </c>
@@ -6772,7 +8035,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -6783,13 +8046,13 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="J16" s="2">
         <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:11">
@@ -6800,13 +8063,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2">
         <v>8</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="3:11">
@@ -6817,13 +8080,13 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="J18" s="2">
         <v>10</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -6834,18 +8097,18 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2">
         <v>2</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2">
         <v>22</v>
@@ -6857,9 +8120,11 @@
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
       <c r="I20" s="2" t="s">
         <v>35</v>
       </c>
@@ -6867,7 +8132,7 @@
         <v>8</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="3:11">
@@ -6878,18 +8143,18 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2">
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2">
         <v>22</v>
@@ -6901,9 +8166,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
       <c r="I22" s="2" t="s">
         <v>38</v>
       </c>
@@ -6911,7 +8178,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="3:11">
@@ -6922,13 +8189,13 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2">
         <v>8</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -6939,18 +8206,18 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="J24" s="2">
         <v>8</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2">
         <v>22</v>
@@ -6962,53 +8229,70 @@
         <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2">
         <v>8</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="I26" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="J26" s="2">
         <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="I27" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="J27" s="2">
         <v>8</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="I28" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="J28" s="2">
         <v>8</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C30:J30"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7017,23 +8301,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="3.875" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="256" width="10" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -7055,7 +8335,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7080,451 +8362,339 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>960</v>
+        <v>178</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>178</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>178</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="3" t="s">
-        <v>135</v>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>960</v>
+        <v>178</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>145</v>
+        <v>191</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>178</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>960</v>
+        <v>178</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>194</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>178</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
-        <v>960</v>
+        <v>178</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>147</v>
+        <v>196</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>178</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
-        <v>960</v>
+        <v>178</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>193</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="C15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="2">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2">
-        <v>960</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="2">
-        <v>26</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2">
-        <v>960</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="2">
-        <v>26</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="2">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2">
-        <v>960</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="2">
-        <v>26</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="2">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>960</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="2">
-        <v>26</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="2">
-        <v>16</v>
-      </c>
-      <c r="E23" s="2">
-        <v>960</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="2">
-        <v>26</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:J15"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K83"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="10"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -7546,7 +8716,9 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7571,32 +8743,34 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
-        <v>303</v>
+        <v>960</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>2</v>
+      <c r="J4" s="2">
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -7610,11 +8784,11 @@
       <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5">
-        <v>14</v>
+      <c r="J5" s="2">
+        <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -7628,17 +8802,556 @@
       <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>960</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>960</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>960</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>960</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>960</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>960</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="2">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>960</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="2">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>960</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="2">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
+        <v>960</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="2">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C25:J25"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K83"/>
+  <sheetViews>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>303</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J6">
         <v>8</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2">
         <v>9</v>
@@ -7650,9 +9363,11 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +9375,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7676,12 +9391,12 @@
         <v>2</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2">
         <v>9</v>
@@ -7693,9 +9408,11 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
@@ -7703,7 +9420,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -7720,7 +9437,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -7737,12 +9454,12 @@
         <v>6</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="C12" s="2" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
@@ -7754,9 +9471,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
@@ -7764,12 +9483,12 @@
         <v>6</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2">
         <v>9</v>
@@ -7781,9 +9500,11 @@
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
       </c>
@@ -7791,7 +9512,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -7808,7 +9529,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -7825,7 +9546,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -7842,12 +9563,12 @@
         <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2">
         <v>9</v>
@@ -7859,9 +9580,11 @@
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>27</v>
       </c>
@@ -7869,7 +9592,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="3:11">
@@ -7886,7 +9609,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -7903,7 +9626,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="3:11">
@@ -7920,12 +9643,12 @@
         <v>14</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="D21" s="2">
         <v>9</v>
@@ -7937,9 +9660,11 @@
         <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>31</v>
       </c>
@@ -7947,7 +9672,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="3:11">
@@ -7964,7 +9689,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="3:11">
@@ -7981,7 +9706,7 @@
         <v>6</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -7998,12 +9723,12 @@
         <v>14</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="2" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2">
         <v>9</v>
@@ -8015,9 +9740,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>35</v>
       </c>
@@ -8025,12 +9752,12 @@
         <v>6</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2">
         <v>9</v>
@@ -8042,9 +9769,11 @@
         <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
       <c r="I26" s="2" t="s">
         <v>38</v>
       </c>
@@ -8052,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="3:11">
@@ -8069,7 +9798,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="3:11">
@@ -8086,7 +9815,7 @@
         <v>6</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="3:11">
@@ -8103,12 +9832,12 @@
         <v>14</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="2" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="D30" s="2">
         <v>9</v>
@@ -8120,17 +9849,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
       <c r="I30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>6</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="3:11">
@@ -8145,11 +9876,15 @@
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="D32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="2"/>
@@ -8312,604 +10047,9 @@
       <c r="F83" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K30"/>
-  <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="28.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>213</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>213</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="C6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>210</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="2">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2">
-        <v>214</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="C12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2">
-        <v>214</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="C16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>212</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>225</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2">
-        <v>215</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
-      <c r="C27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2">
-        <v>220</v>
-      </c>
-      <c r="F27" s="2">
-        <v>4</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="I28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
-      <c r="I29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
-      <c r="I30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D32:J32"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
